--- a/biology/Botanique/Liste_des_parcs_de_San_Francisco/Liste_des_parcs_de_San_Francisco.xlsx
+++ b/biology/Botanique/Liste_des_parcs_de_San_Francisco/Liste_des_parcs_de_San_Francisco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article dresse une liste des parcs de San Francisco, dans l'État de Californie.
 </t>
@@ -511,7 +523,9 @@
           <t>Parcs fédéraux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parcs gérés par le National Park Service :
 Golden Gate National Recreation Area (en partie), incluant :
@@ -565,7 +579,9 @@
           <t>Parcs d'État</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>California Department of Parks &amp; Recreation
 Angel Island (en partie)
@@ -601,7 +617,9 @@
           <t>Parcs municipaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alamo Square
 Alta Plaza
@@ -678,7 +696,9 @@
           <t>Parcs privés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>AT&amp;T Park
 Ghirardelli Square
@@ -710,7 +730,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">San Francisco
  Portail de San Francisco   Portail des espaces verts   Portail du jardinage et de l’horticulture                   </t>
